--- a/Initial audit.xlsx
+++ b/Initial audit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -212,15 +212,6 @@
     <t>Images need to be appropriately sized on the page</t>
   </si>
   <si>
-    <t>Images need to be compressed and formatted to increase performance and SEO</t>
-  </si>
-  <si>
-    <t>Compress and format pictures to Webp</t>
-  </si>
-  <si>
-    <t>Give images a responsive size on the page</t>
-  </si>
-  <si>
     <t>Minifying your code reduces file size and improves performance</t>
   </si>
   <si>
@@ -264,6 +255,15 @@
   </si>
   <si>
     <t>Change title and quote images to headings and aside to improve responsive appearance</t>
+  </si>
+  <si>
+    <t>Images need to be in an appropriate format to increase performance and SEO</t>
+  </si>
+  <si>
+    <t>Format pictures to Webp</t>
+  </si>
+  <si>
+    <t>Compress images</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -679,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
@@ -819,10 +819,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>1</v>
@@ -919,10 +919,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
@@ -979,16 +979,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Initial audit.xlsx
+++ b/Initial audit.xlsx
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
